--- a/Datos/Estudiantes.xlsx
+++ b/Datos/Estudiantes.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dataxbi-my.sharepoint.com/personal/dataxbi_dataxbi_com/Documents/Formación/ICONO TC/Nivel Básico Intermedio/IconoTrainingAF-Excel-nivel-Basico-Intermedio/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dataxbi-my.sharepoint.com/personal/dataxbi_dataxbi_com/Documents/Formación/ICONO TC/Curso Excel Nivel Básico Intermedio RRHH/AF-Excel-nivel-B-sico-Intermedio-LogiRail-14-17-Nov-/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_7C780854681138025121A803E458956C5DA8BD62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB40179-6732-4AEF-8748-D0DD516D6314}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_7C780854681138025121A803E458956C5DA8BD62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3916D7-AD38-4CA2-A391-BD414AFB04FB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2025" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="9" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="11" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="10" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="12" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="SegmentaciónDeDatos_Sexo">#N/A</definedName>
     <definedName name="Tabla1">#REF!</definedName>
     <definedName name="Tabla2">#REF!,#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId6"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -45,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="33">
   <si>
     <t>Estudiante</t>
   </si>
@@ -216,6 +226,89 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Sexo">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4BB09D-23E2-AE4B-9BF9-623B9887486D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sexo"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8896350" y="314326"/>
+              <a:ext cx="1733550" cy="952500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -227,6 +320,55 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Sexo" xr10:uid="{56D8B529-93B0-45B2-92DB-6B0D58F9694B}" sourceName="Sexo">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Sexo" xr10:uid="{DFB75D47-5671-4E32-9AFF-BEEDE44F6679}" cache="SegmentaciónDeDatos_Sexo" caption="Sexo" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3D8EAF7-1804-49B2-A4CF-6112C1C26F94}" name="Tabla3" displayName="Tabla3" ref="A1:C27">
+  <autoFilter ref="A1:C27" xr:uid="{B3D8EAF7-1804-49B2-A4CF-6112C1C26F94}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
+    <sortCondition ref="A1:A27"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0B7F57AB-446A-41AF-8239-FB31B650735E}" name="Estudiante" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{8243D764-58F3-42FF-8505-A4CBC3F118D0}" name="Nota " totalsRowFunction="average"/>
+    <tableColumn id="3" xr3:uid="{D9A2B748-0607-40CC-B247-2EBE1B5F91DF}" name="Sexo" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92211688-C839-402C-A628-DC31734CACCC}" name="Tabla4" displayName="Tabla4" ref="H1:J27" totalsRowShown="0">
+  <autoFilter ref="H1:J27" xr:uid="{92211688-C839-402C-A628-DC31734CACCC}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="M"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F7E05E17-E89B-48AB-AC7B-9CC97613B99A}" name="Estudiante"/>
+    <tableColumn id="2" xr3:uid="{628238E3-FDFC-4A21-804E-1C4607A01BDD}" name="Nota "/>
+    <tableColumn id="3" xr3:uid="{5D65674B-5625-4EE6-B8E1-0E9B689B8761}" name="Sexo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,7 +671,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B27"/>
+      <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A308E9D-89D0-4E84-AE50-6DDED09B6006}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1215,4 +1357,575 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B037D0EA-D01A-44C4-ADC4-EBA4105164E4}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>99</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>89</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <v>95</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>93</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>